--- a/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
+++ b/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161628</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>60.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>易方达中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>47.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009239</t>
+          <t>159998</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
+          <t>天弘中证计算机主题ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>22.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5907</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>257020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达中证人工智能主题ETF</t>
+          <t>国联安精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159998</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘中证计算机主题ETF</t>
+          <t>华夏中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>14.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>99.35</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512930</t>
+          <t>515980</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平安中证人工智能主题ETF</t>
+          <t>华富中证人工智能产业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏中证人工智能主题ETF</t>
+          <t>财通多策略升级混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.49</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515980</t>
+          <t>161631</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华富中证人工智能产业ETF</t>
+          <t>融通中证人工智能主题指数(LOF)A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99.29</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>257020</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国联安精选混合</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>165523</t>
+          <t>512930</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚中证信息安全指数（LOF）</t>
+          <t>平安中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>200011</t>
+          <t>165523</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长城景气行业龙头灵活配置混合</t>
+          <t>信诚中证信息安全指数（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001730</t>
+          <t>001880</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴银大健康灵活配置混合</t>
+          <t>长城中国智造灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001880</t>
+          <t>161628</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长城中国智造灵活配置混合A</t>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -912,25 +1072,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161631</t>
+          <t>001730</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
+          <t>兴银大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>009239</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>融通中证人工智能主题指数(LOF)C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>60.25</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010000</t>
+          <t>200011</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长城中国智造灵活配置混合C</t>
+          <t>长城景气行业龙头灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>010000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>长城中国智造灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1029,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1250,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161631</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
+          <t>易方达中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>35.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009239</t>
+          <t>159998</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
+          <t>天弘中证计算机主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>19.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>华夏中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>512720</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>国泰中证计算机主题ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165523</t>
+          <t>161631</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信诚中证信息安全指数（LOF）</t>
+          <t>融通中证人工智能主题指数(LOF)A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512720</t>
+          <t>515980</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰中证计算机主题ETF</t>
+          <t>华富中证人工智能产业ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.25</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512930</t>
+          <t>515400</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安中证人工智能主题ETF</t>
+          <t>富国中证大数据产业ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏中证人工智能主题ETF</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.09</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>56.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515400</t>
+          <t>165523</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证大数据产业ETF</t>
+          <t>信诚中证信息安全指数（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515980</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华富中证人工智能产业ETF</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99.47</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>512930</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达中证人工智能主题ETF</t>
+          <t>平安中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>159998</t>
+          <t>161628</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘中证计算机主题ETF</t>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161628</t>
+          <t>009239</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
+          <t>融通中证人工智能主题指数(LOF)C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
+++ b/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
+++ b/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2246,4 +2247,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
+++ b/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2493,4 +2494,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
+++ b/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2502,7 +2503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,17 +2514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2533,14 +2554,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2549,14 +2592,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.8</v>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2565,14 +2630,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.93</v>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2581,13 +2668,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
+++ b/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2863,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,17 +2875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.54</v>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2910,14 +2953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2926,14 +2991,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.8</v>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2942,14 +3029,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.93</v>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2958,13 +3067,1953 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2966</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
+++ b/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4896,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,17 +4908,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4927,14 +4948,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.18</v>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4943,14 +4986,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4959,14 +5024,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4975,14 +5062,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5392</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -4991,14 +5100,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.93</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5007,13 +5138,2385 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4448</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012029</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>58.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012030</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014584</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
+++ b/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>8.789999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>5.18</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>0.54</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>2.93</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.6</v>
       </c>
     </row>
@@ -600,6 +617,2532 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2749</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2687</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3085,7 +5628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5117,7 +7660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5477,7 +8020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5723,7 +8266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6159,7 +8702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6747,7 +9290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
+++ b/数据整理/stocks/A股/上证主板/603019-中科曙光.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>9.779999999999999</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="n">
-        <v>8.789999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>5.18</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.8</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>2.93</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.6</v>
       </c>
     </row>
@@ -616,7 +633,1639 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5907</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>200011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城景气行业龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3142,7 +4791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5628,7 +7277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7660,7 +9309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8020,7 +9669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8266,7 +9915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8702,7 +10351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9288,782 +10937,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2839</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>60.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.7378</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159819</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>47.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3684</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159998</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证计算机主题ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5907</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>257020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5477</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4270</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512720</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰中证计算机主题ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3513</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515980</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华富中证人工智能产业ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2989</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501015</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通多策略升级混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2872</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161631</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2699</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1184</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512930</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安中证人工智能主题ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1011</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>165523</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>信诚中证信息安全指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0908</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001880</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长城中国智造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>161628</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001730</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>兴银大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009239</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>200011</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长城景气行业龙头灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>79.92</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010000</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长城中国智造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>